--- a/Data/LCDataDictionary.xlsx
+++ b/Data/LCDataDictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a4fc27d6439509c/Desktop/GW/ML_Projects/Credit_Risk/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a4fc27d6439509c/Desktop/Projects/Credit_risk/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_449E94AB91F1D48BEA0DED51377A2C9768551F48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{174C7879-A160-46CB-AA7C-89778887C455}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_449E94AB91F1D48BEA0DED51377A2C9768551F48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5034908-63AA-49C7-B1B3-B289878D3EB6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$A$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -1665,10 +1665,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1956,13 +1952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1982,7 +1978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1990,7 +1986,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1998,7 +1994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>255</v>
       </c>
@@ -2006,7 +2002,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>253</v>
       </c>
@@ -2014,7 +2010,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>227</v>
       </c>
@@ -2022,7 +2018,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>107</v>
       </c>
@@ -2030,7 +2026,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>256</v>
       </c>
@@ -2062,7 +2058,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>167</v>
       </c>
@@ -2086,7 +2082,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2095,7 +2091,7 @@
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2100,7 @@
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2108,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +2124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2160,7 +2156,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2184,7 +2180,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2188,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2200,7 +2196,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -2209,7 +2205,7 @@
       </c>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -2218,7 +2214,7 @@
       </c>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2226,7 +2222,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -2234,7 +2230,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2266,7 +2262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -2282,7 +2278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2286,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
@@ -2298,7 +2294,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="16.05" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -2322,7 +2318,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>31</v>
       </c>
@@ -2330,7 +2326,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2334,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>226</v>
       </c>
@@ -2362,7 +2358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -2370,7 +2366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -2378,7 +2374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -2394,7 +2390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>34</v>
       </c>
@@ -2402,7 +2398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -2418,7 +2414,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -2426,7 +2422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
@@ -2434,7 +2430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
@@ -2450,7 +2446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>258</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>248</v>
       </c>
@@ -2466,7 +2462,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>267</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>269</v>
       </c>
@@ -2482,7 +2478,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>271</v>
       </c>
@@ -2490,7 +2486,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>273</v>
       </c>
@@ -2498,7 +2494,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>275</v>
       </c>
@@ -2514,7 +2510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>279</v>
       </c>
@@ -2522,7 +2518,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>281</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>283</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>287</v>
       </c>
@@ -2554,7 +2550,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>218</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>289</v>
       </c>
@@ -2570,7 +2566,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>295</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>291</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>293</v>
       </c>
@@ -2594,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>129</v>
       </c>
@@ -2616,7 +2612,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B79" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="max_bal_bc"/>
+        <filter val="revol_bal"/>
+        <filter val="tot_cur_bal"/>
+        <filter val="total_bal_il"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
     <sortCondition ref="A2:A101"/>
   </sortState>
